--- a/hchs_mesa/predictions/metabolic_syndrome_classifier_results.xlsx
+++ b/hchs_mesa/predictions/metabolic_syndrome_classifier_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevalee Shah\Documents\Cambridge\Part II\Project\SimCLR HCHS\hchs_mesa\predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E7447-EB25-4A44-BF6F-3081141B044D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592532DA-E5AC-4934-830D-2B35B6EC33FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,15 +304,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -328,6 +319,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,169 +688,169 @@
       <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="3" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="3" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="3" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="3" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="3" t="s">
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="3" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="3" t="s">
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="5"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="14"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AD3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AG3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AH3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AI3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AK3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AL3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -858,112 +858,112 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0.63586956521739135</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>0.55801056379597758</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>0.63586956521739135</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>0.54892808148074845</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>0.67663043478260865</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>0.67364709723626559</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>0.67663043478260865</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <v>0.59480971646966463</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="6">
         <v>0.65489130434782605</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="7">
         <v>0.6031182440547681</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <v>0.65489130434782605</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="8">
         <v>0.53253110333697107</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="6">
         <v>0.63043478260869568</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="7">
         <v>0.63750324572285855</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="7">
         <v>0.63043478260869568</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="8">
         <v>0.63351923806971688</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="6">
         <v>0.62771739130434778</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="7">
         <v>0.60592909545770679</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="7">
         <v>0.62771739130434778</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="8">
         <v>0.6118500369592913</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="6">
         <v>0.57065217391304346</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="7">
         <v>0.55924243110095129</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="7">
         <v>0.57065217391304346</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="8">
         <v>0.56418887330528289</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="6">
         <v>0.67119565217391308</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="7">
         <v>0.73856431159420277</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="7">
         <v>0.67119565217391308</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AD4" s="8">
         <v>0.55883035788447066</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AE4" s="6">
         <v>0.63586956521739135</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="7">
         <v>0.528767824483937</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="7">
         <v>0.63586956521739135</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="8">
         <v>0.5306216542629586</v>
       </c>
-      <c r="AI4" s="9">
+      <c r="AI4" s="6">
         <v>0.60869565217391308</v>
       </c>
-      <c r="AJ4" s="10">
+      <c r="AJ4" s="7">
         <v>0.58242965635839605</v>
       </c>
-      <c r="AK4" s="10">
+      <c r="AK4" s="7">
         <v>0.60869565217391308</v>
       </c>
-      <c r="AL4" s="11">
+      <c r="AL4" s="8">
         <v>0.589983567247229</v>
       </c>
     </row>
@@ -971,112 +971,112 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>0.64402173913043481</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>0.5689920664667667</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>0.64402173913043481</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>0.54679921352168248</v>
       </c>
-      <c r="G5" s="9">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="G5" s="6">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="H5" s="7">
         <v>0.42764760038013783</v>
       </c>
-      <c r="I5" s="10">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="I5" s="7">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="J5" s="8">
         <v>0.51571341594441655</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <v>0.65489130434782605</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <v>0.42888262051039688</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <v>0.65489130434782605</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="8">
         <v>0.51832119654458475</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="6">
         <v>0.64402173913043481</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="7">
         <v>0.57877195427252637</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="7">
         <v>0.64402173913043481</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="8">
         <v>0.55736081316957642</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="6">
         <v>0.65217391304347827</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="7">
         <v>0.59841528391835375</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="7">
         <v>0.65217391304347827</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="8">
         <v>0.55896624219605584</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="6">
         <v>0.57336956521739135</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="7">
         <v>0.55441196032228635</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="7">
         <v>0.57336956521739135</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="8">
         <v>0.56184573426286732</v>
       </c>
-      <c r="AA5" s="9">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="AB5" s="10">
+      <c r="AA5" s="6">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="AB5" s="7">
         <v>0.54379103611177837</v>
       </c>
-      <c r="AC5" s="10">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="AD5" s="11">
+      <c r="AC5" s="7">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="AD5" s="8">
         <v>0.52516938842889183</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AE5" s="6">
         <v>0.65489130434782605</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="7">
         <v>0.42888262051039688</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="7">
         <v>0.65489130434782605</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="8">
         <v>0.51832119654458475</v>
       </c>
-      <c r="AI5" s="9">
+      <c r="AI5" s="6">
         <v>0.64673913043478259</v>
       </c>
-      <c r="AJ5" s="10">
+      <c r="AJ5" s="7">
         <v>0.61817905312974786</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AK5" s="7">
         <v>0.64673913043478259</v>
       </c>
-      <c r="AL5" s="11">
+      <c r="AL5" s="8">
         <v>0.62004796197655276</v>
       </c>
     </row>
@@ -1084,112 +1084,112 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="6">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="D6" s="7">
         <v>0.59030720944047155</v>
       </c>
-      <c r="E6" s="10">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="7">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="F6" s="8">
         <v>0.55729472437786121</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>0.66304347826086951</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>0.63505736839278992</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>0.66304347826086951</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <v>0.57274854712742918</v>
       </c>
-      <c r="K6" s="9">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="K6" s="6">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="L6" s="7">
         <v>0.54379103611177837</v>
       </c>
-      <c r="M6" s="10">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="M6" s="7">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="N6" s="8">
         <v>0.52516938842889183</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="6">
         <v>0.61956521739130432</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="7">
         <v>0.61535588397456509</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="7">
         <v>0.61956521739130432</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="8">
         <v>0.61730192214839175</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="6">
         <v>0.64130434782608692</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="7">
         <v>0.58039742001455163</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="7">
         <v>0.64130434782608692</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="8">
         <v>0.56520606884057967</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="6">
         <v>0.61141304347826086</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="7">
         <v>0.59357052317494496</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="7">
         <v>0.61141304347826086</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="8">
         <v>0.59978251133083116</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="6">
         <v>0.625</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="7">
         <v>0.51523314429741651</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="7">
         <v>0.625</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AD6" s="8">
         <v>0.52827645051194527</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AE6" s="6">
         <v>0.65217391304347827</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AF6" s="7">
         <v>0.59095576805313488</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="7">
         <v>0.65217391304347827</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="8">
         <v>0.54382425278252533</v>
       </c>
-      <c r="AI6" s="9">
+      <c r="AI6" s="6">
         <v>0.62771739130434778</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AJ6" s="7">
         <v>0.6046294108380591</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AK6" s="7">
         <v>0.62771739130434778</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AL6" s="8">
         <v>0.61057022328770971</v>
       </c>
     </row>
@@ -1197,112 +1197,112 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>0.65489130434782605</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>0.60979060102301796</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>0.65489130434782605</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>0.57408172059103979</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>0.66576086956521741</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>0.64874137336093862</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>0.66576086956521741</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <v>0.57095544867160331</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="6">
         <v>0.65489130434782605</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="7">
         <v>0.60544859985261612</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="7">
         <v>0.65489130434782605</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="8">
         <v>0.54937389386837066</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="6">
         <v>0.61141304347826086</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="7">
         <v>0.64582865095972519</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="7">
         <v>0.61141304347826086</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="8">
         <v>0.62051205161782574</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="6">
         <v>0.60054347826086951</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="7">
         <v>0.558057197614651</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="7">
         <v>0.60054347826086951</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="8">
         <v>0.56766497662035209</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="6">
         <v>0.56521739130434778</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="7">
         <v>0.55016455854110424</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="7">
         <v>0.56521739130434778</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="8">
         <v>0.55646278555637441</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA7" s="6">
         <v>0.66032608695652173</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="7">
         <v>0.62683827420515648</v>
       </c>
-      <c r="AC7" s="10">
+      <c r="AC7" s="7">
         <v>0.66032608695652173</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AD7" s="8">
         <v>0.6120338819336909</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AE7" s="6">
         <v>0.65217391304347827</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AF7" s="7">
         <v>0.59526672058641361</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="7">
         <v>0.65217391304347827</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7" s="8">
         <v>0.55163859511685598</v>
       </c>
-      <c r="AI7" s="9">
+      <c r="AI7" s="6">
         <v>0.61413043478260865</v>
       </c>
-      <c r="AJ7" s="10">
+      <c r="AJ7" s="7">
         <v>0.59578554948802154</v>
       </c>
-      <c r="AK7" s="10">
+      <c r="AK7" s="7">
         <v>0.61413043478260865</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AL7" s="8">
         <v>0.60200371478164771</v>
       </c>
     </row>
@@ -1310,112 +1310,112 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>0.64402173913043481</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>0.58355790669753882</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>0.64402173913043481</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>0.56387249141344642</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>0.64673913043478259</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>0.58525985549499304</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <v>0.64673913043478259</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <v>0.55906064856901039</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <v>0.65217391304347827</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="7">
         <v>0.59526672058641361</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="7">
         <v>0.65217391304347827</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="8">
         <v>0.55163859511685598</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="6">
         <v>0.61141304347826086</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="7">
         <v>0.64401462215320915</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="7">
         <v>0.61141304347826086</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="8">
         <v>0.62035297784060806</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="6">
         <v>0.64673913043478259</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="7">
         <v>0.60450737008560107</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="7">
         <v>0.64673913043478259</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="8">
         <v>0.59538108045167948</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="6">
         <v>0.55434782608695654</v>
       </c>
-      <c r="X8" s="10">
+      <c r="X8" s="7">
         <v>0.55268241188047962</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="7">
         <v>0.55434782608695654</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="8">
         <v>0.55350013403373088</v>
       </c>
-      <c r="AA8" s="9">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="AB8" s="10">
+      <c r="AA8" s="6">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="AB8" s="7">
         <v>0.60639177693761825</v>
       </c>
-      <c r="AC8" s="10">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="AD8" s="11">
+      <c r="AC8" s="7">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="AD8" s="8">
         <v>0.59260959067073715</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AE8" s="6">
         <v>0.65760869565217395</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AF8" s="7">
         <v>0.61673632615557183</v>
       </c>
-      <c r="AG8" s="10">
+      <c r="AG8" s="7">
         <v>0.65760869565217395</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AH8" s="8">
         <v>0.56585739466174256</v>
       </c>
-      <c r="AI8" s="9">
+      <c r="AI8" s="6">
         <v>0.58967391304347827</v>
       </c>
-      <c r="AJ8" s="10">
+      <c r="AJ8" s="7">
         <v>0.54852741898281632</v>
       </c>
-      <c r="AK8" s="10">
+      <c r="AK8" s="7">
         <v>0.58967391304347827</v>
       </c>
-      <c r="AL8" s="11">
+      <c r="AL8" s="8">
         <v>0.55956712459534319</v>
       </c>
     </row>
@@ -1423,112 +1423,112 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>0.63586956521739135</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>0.55801056379597758</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>0.63586956521739135</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>0.54892808148074845</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>0.66304347826086951</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>0.63240081125617953</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>0.66304347826086951</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="8">
         <v>0.57941169555813299</v>
       </c>
-      <c r="K9" s="9">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="K9" s="6">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="L9" s="7">
         <v>0.57425755170167736</v>
       </c>
-      <c r="M9" s="10">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="M9" s="7">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="N9" s="8">
         <v>0.53821009174744538</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="6">
         <v>0.59239130434782605</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="7">
         <v>0.61594197429917263</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="7">
         <v>0.59239130434782605</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="8">
         <v>0.60039309539421981</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="6">
         <v>0.61413043478260865</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="7">
         <v>0.59578554948802154</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="7">
         <v>0.61413043478260865</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="8">
         <v>0.60200371478164771</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="6">
         <v>0.60054347826086951</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="7">
         <v>0.58942067401009313</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="7">
         <v>0.60054347826086951</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="8">
         <v>0.59403624768439633</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="6">
         <v>0.66847826086956519</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="7">
         <v>0.64104030800799483</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="7">
         <v>0.66847826086956519</v>
       </c>
-      <c r="AD9" s="11">
+      <c r="AD9" s="8">
         <v>0.6035931857114254</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AE9" s="6">
         <v>0.64673913043478259</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AF9" s="7">
         <v>0.57310042188558807</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="7">
         <v>0.64673913043478259</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AH9" s="8">
         <v>0.54463294816555685</v>
       </c>
-      <c r="AI9" s="9">
+      <c r="AI9" s="6">
         <v>0.58967391304347827</v>
       </c>
-      <c r="AJ9" s="10">
+      <c r="AJ9" s="7">
         <v>0.55634922982595791</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AK9" s="7">
         <v>0.58967391304347827</v>
       </c>
-      <c r="AL9" s="11">
+      <c r="AL9" s="8">
         <v>0.5662659624998585</v>
       </c>
     </row>
@@ -1536,112 +1536,112 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>0.64673913043478259</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>0.58525985549499304</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>0.64673913043478259</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>0.55906064856901039</v>
       </c>
-      <c r="G10" s="9">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="G10" s="6">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="H10" s="7">
         <v>0.59396025249858198</v>
       </c>
-      <c r="I10" s="10">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="I10" s="7">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="J10" s="8">
         <v>0.56411866335019345</v>
       </c>
-      <c r="K10" s="9">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="L10" s="10">
+      <c r="K10" s="6">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="L10" s="7">
         <v>0.57894800329859275</v>
       </c>
-      <c r="M10" s="10">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="M10" s="7">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="N10" s="8">
         <v>0.54227741975606147</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="6">
         <v>0.61413043478260865</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="7">
         <v>0.64400348527035178</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="7">
         <v>0.61413043478260865</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="8">
         <v>0.62272594959462146</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="6">
         <v>0.6875</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="7">
         <v>0.67038285502226624</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="7">
         <v>0.6875</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="8">
         <v>0.66967275289724337</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="6">
         <v>0.55706521739130432</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="7">
         <v>0.55290655476939665</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="7">
         <v>0.55706521739130432</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="8">
         <v>0.55489187353825631</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="6">
         <v>0.66576086956521741</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="7">
         <v>0.6365650879917184</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="7">
         <v>0.66576086956521741</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AD10" s="8">
         <v>0.59342491003933961</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AE10" s="6">
         <v>0.66847826086956519</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AF10" s="7">
         <v>0.65337841063000812</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="7">
         <v>0.66847826086956519</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AH10" s="8">
         <v>0.57963969959311568</v>
       </c>
-      <c r="AI10" s="9">
+      <c r="AI10" s="6">
         <v>0.60326086956521741</v>
       </c>
-      <c r="AJ10" s="10">
+      <c r="AJ10" s="7">
         <v>0.57301798389061698</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AK10" s="7">
         <v>0.60326086956521741</v>
       </c>
-      <c r="AL10" s="11">
+      <c r="AL10" s="8">
         <v>0.58138317912694748</v>
       </c>
     </row>
@@ -1649,112 +1649,112 @@
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>0.63315217391304346</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>0.52247843340234645</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>0.63315217391304346</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>0.52909744366395484</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>0.65760869565217395</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="10">
         <v>0.77515993365714952</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="10">
         <v>0.65760869565217395</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="11">
         <v>0.52456602188215107</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>0.65489130434782605</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="10">
         <v>0.42888262051039688</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="10">
         <v>0.65489130434782605</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="11">
         <v>0.51832119654458475</v>
       </c>
-      <c r="O11" s="12">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="P11" s="13">
+      <c r="O11" s="9">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="P11" s="10">
         <v>0.60741621376811605</v>
       </c>
-      <c r="Q11" s="13">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="R11" s="14">
+      <c r="Q11" s="10">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="R11" s="11">
         <v>0.59501561098747791</v>
       </c>
-      <c r="S11" s="12">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="T11" s="13">
+      <c r="S11" s="9">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="T11" s="10">
         <v>0.58261795948616601</v>
       </c>
-      <c r="U11" s="13">
-        <v>0.64945652173913049</v>
-      </c>
-      <c r="V11" s="14">
+      <c r="U11" s="10">
+        <v>0.64945652173913049</v>
+      </c>
+      <c r="V11" s="11">
         <v>0.54621446263978701</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11" s="9">
         <v>0.56793478260869568</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="10">
         <v>0.56551305669877916</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Y11" s="10">
         <v>0.56793478260869568</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="11">
         <v>0.5666890037340554</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA11" s="9">
         <v>0.64673913043478259</v>
       </c>
-      <c r="AB11" s="13">
+      <c r="AB11" s="10">
         <v>0.52673087180193046</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11" s="10">
         <v>0.64673913043478259</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AD11" s="11">
         <v>0.52377134621562127</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11" s="9">
         <v>0.65217391304347827</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AF11" s="10">
         <v>0.42826679303400073</v>
       </c>
-      <c r="AG11" s="13">
+      <c r="AG11" s="10">
         <v>0.65217391304347827</v>
       </c>
-      <c r="AH11" s="14">
+      <c r="AH11" s="11">
         <v>0.51701945080091538</v>
       </c>
-      <c r="AI11" s="12">
+      <c r="AI11" s="9">
         <v>0.59510869565217395</v>
       </c>
-      <c r="AJ11" s="13">
+      <c r="AJ11" s="10">
         <v>0.55116604514896428</v>
       </c>
-      <c r="AK11" s="13">
+      <c r="AK11" s="10">
         <v>0.59510869565217395</v>
       </c>
-      <c r="AL11" s="14">
+      <c r="AL11" s="11">
         <v>0.5617828674587243</v>
       </c>
     </row>
